--- a/PlacesBeenTo.xlsx
+++ b/PlacesBeenTo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sitar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sitar\Desktop\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="8160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>Oahu</t>
   </si>
   <si>
-    <t xml:space="preserve">Las Angelos </t>
-  </si>
-  <si>
     <t>Grand Canyon</t>
   </si>
   <si>
@@ -153,12 +150,15 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -504,11 +504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -650,7 +650,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -658,7 +658,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -666,7 +666,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -674,7 +674,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -682,7 +682,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -690,7 +690,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -698,7 +698,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -706,7 +706,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -714,7 +714,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -722,7 +722,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -730,7 +730,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -738,7 +738,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -746,7 +746,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -754,7 +754,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -762,7 +762,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -770,7 +770,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -778,31 +778,31 @@
         <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
